--- a/王座國際門市通訊錄.xlsx
+++ b/王座國際門市通訊錄.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A350E0-0422-4E4D-A265-0B16E68BBF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55970761-9F93-4362-AEE1-3BB5E4E21C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>南港CityLink</t>
   </si>
   <si>
-    <t>洪國瑋</t>
-  </si>
-  <si>
     <t>呂嵐婷</t>
   </si>
   <si>
@@ -412,6 +409,10 @@
   </si>
   <si>
     <t>台中廣三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐思辰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -507,15 +508,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -798,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +821,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -835,12 +830,12 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -849,12 +844,12 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -863,12 +858,12 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -877,12 +872,12 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -891,12 +886,12 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -905,12 +900,12 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -919,12 +914,12 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -933,12 +928,12 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -947,12 +942,12 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -961,12 +956,12 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -975,12 +970,12 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -989,12 +984,12 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1003,12 +998,12 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1017,12 +1012,12 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1031,12 +1026,12 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1045,12 +1040,12 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1059,12 +1054,12 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1073,12 +1068,12 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1087,12 +1082,12 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1101,12 +1096,12 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1115,12 +1110,12 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1129,12 +1124,12 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1143,12 +1138,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -1157,12 +1152,12 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1171,12 +1166,12 @@
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -1185,399 +1180,399 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>83</v>
+      <c r="C39" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>84</v>
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
